--- a/EC/Train Runs and Enforcements 2016-06-18.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2576,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
@@ -15178,8 +15178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16462,7 +16462,14 @@
       <c r="N25" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P25" s="79"/>
+      <c r="P25" s="79" t="str">
+        <f>VLOOKUP(C25,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 06:42:29-0600',mode:absolute,to:'2016-06-18 07:27:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q25" s="19" t="str">
+        <f t="shared" ref="Q25:Q75" si="4">MID(B25,13,4)</f>
+        <v>4040</v>
+      </c>
     </row>
     <row r="26" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
@@ -16508,7 +16515,14 @@
       <c r="N26" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P26" s="79"/>
+      <c r="P26" s="79" t="str">
+        <f>VLOOKUP(C26,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 14:12:30-0600',mode:absolute,to:'2016-06-18 14:54:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q26" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4025</v>
+      </c>
     </row>
     <row r="27" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
@@ -16554,7 +16568,14 @@
       <c r="N27" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P27" s="79"/>
+      <c r="P27" s="79" t="str">
+        <f>VLOOKUP(C27,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 15:25:38-0600',mode:absolute,to:'2016-06-18 15:58:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q27" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4040</v>
+      </c>
     </row>
     <row r="28" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
@@ -16600,7 +16621,14 @@
       <c r="N28" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P28" s="79"/>
+      <c r="P28" s="79" t="str">
+        <f>VLOOKUP(C28,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 15:25:38-0600',mode:absolute,to:'2016-06-18 15:58:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q28" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4040</v>
+      </c>
     </row>
     <row r="29" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
@@ -16646,7 +16674,14 @@
       <c r="N29" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P29" s="79"/>
+      <c r="P29" s="79" t="str">
+        <f>VLOOKUP(C29,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 18:54:19-0600',mode:absolute,to:'2016-06-18 19:39:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q29" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4040</v>
+      </c>
     </row>
     <row r="30" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
@@ -16692,7 +16727,14 @@
       <c r="N30" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P30" s="79"/>
+      <c r="P30" s="79" t="str">
+        <f>VLOOKUP(C30,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 10:09:59-0600',mode:absolute,to:'2016-06-18 10:54:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q30" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4040</v>
+      </c>
     </row>
     <row r="31" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
@@ -16738,7 +16780,14 @@
       <c r="N31" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P31" s="79"/>
+      <c r="P31" s="79" t="str">
+        <f>VLOOKUP(C31,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 11:53:02-0600',mode:absolute,to:'2016-06-18 12:38:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q31" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4040</v>
+      </c>
     </row>
     <row r="32" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
@@ -16784,9 +16833,16 @@
       <c r="N32" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P32" s="79"/>
-    </row>
-    <row r="33" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="79" t="str">
+        <f>VLOOKUP(C32,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 13:38:34-0600',mode:absolute,to:'2016-06-18 14:25:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q32" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>42539.397766203707</v>
       </c>
@@ -16830,9 +16886,16 @@
       <c r="N33" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P33" s="79"/>
-    </row>
-    <row r="34" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="79" t="str">
+        <f>VLOOKUP(C33,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 09:19:36-0600',mode:absolute,to:'2016-06-18 10:06:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q33" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>42539.418726851851</v>
       </c>
@@ -16876,9 +16939,16 @@
       <c r="N34" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P34" s="79"/>
-    </row>
-    <row r="35" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="79" t="str">
+        <f>VLOOKUP(C34,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 09:50:08-0600',mode:absolute,to:'2016-06-18 10:42:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q34" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>42539.618032407408</v>
       </c>
@@ -16922,9 +16992,16 @@
       <c r="N35" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P35" s="79"/>
-    </row>
-    <row r="36" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="79" t="str">
+        <f>VLOOKUP(C35,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 14:32:12-0600',mode:absolute,to:'2016-06-18 15:23:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q35" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>42539.835995370369</v>
       </c>
@@ -16968,9 +17045,16 @@
       <c r="N36" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P36" s="79"/>
-    </row>
-    <row r="37" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="79" t="str">
+        <f>VLOOKUP(C36,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 19:51:33-0600',mode:absolute,to:'2016-06-18 20:34:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q36" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>42539.920405092591</v>
       </c>
@@ -17014,9 +17098,16 @@
       <c r="N37" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P37" s="79"/>
-    </row>
-    <row r="38" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="79" t="str">
+        <f>VLOOKUP(C37,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 21:49:05-0600',mode:absolute,to:'2016-06-18 22:44:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q37" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>42540.002962962964</v>
       </c>
@@ -17060,9 +17151,16 @@
       <c r="N38" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="P38" s="79"/>
-    </row>
-    <row r="39" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="79" t="str">
+        <f>VLOOKUP(C38,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 23:51:43-0600',mode:absolute,to:'2016-06-19 00:38:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q38" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>42539.595405092594</v>
       </c>
@@ -17106,9 +17204,16 @@
       <c r="N39" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="P39" s="79"/>
-    </row>
-    <row r="40" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="79" t="str">
+        <f>VLOOKUP(C39,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 13:57:45-0600',mode:absolute,to:'2016-06-18 14:52:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q39" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>42539.667615740742</v>
       </c>
@@ -17152,9 +17257,16 @@
       <c r="N40" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="P40" s="79"/>
-    </row>
-    <row r="41" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="79" t="str">
+        <f>VLOOKUP(C40,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 15:43:44-0600',mode:absolute,to:'2016-06-18 16:36:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q40" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>42539.267546296294</v>
       </c>
@@ -17198,9 +17310,16 @@
       <c r="N41" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="P41" s="79"/>
-    </row>
-    <row r="42" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="79" t="str">
+        <f>VLOOKUP(C41,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 05:26:36-0600',mode:absolute,to:'2016-06-18 06:32:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q41" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>42539.675486111111</v>
       </c>
@@ -17244,9 +17363,16 @@
       <c r="N42" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="P42" s="79"/>
-    </row>
-    <row r="43" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="79" t="str">
+        <f>VLOOKUP(C42,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 16:03:11-0600',mode:absolute,to:'2016-06-18 16:49:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q42" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>42539.223645833335</v>
       </c>
@@ -17288,9 +17414,16 @@
         <v>67</v>
       </c>
       <c r="N43" s="21"/>
-      <c r="P43" s="79"/>
-    </row>
-    <row r="44" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="79" t="str">
+        <f>VLOOKUP(C43,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 04:38:01-0600',mode:absolute,to:'2016-06-18 05:23:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q43" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>42539.261041666665</v>
       </c>
@@ -17332,9 +17465,16 @@
         <v>67</v>
       </c>
       <c r="N44" s="21"/>
-      <c r="P44" s="79"/>
-    </row>
-    <row r="45" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="79" t="str">
+        <f>VLOOKUP(C44,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 05:22:00-0600',mode:absolute,to:'2016-06-18 06:17:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q44" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>42539.307824074072</v>
       </c>
@@ -17376,9 +17516,16 @@
         <v>67</v>
       </c>
       <c r="N45" s="21"/>
-      <c r="P45" s="79"/>
-    </row>
-    <row r="46" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="79" t="str">
+        <f>VLOOKUP(C45,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 06:32:11-0600',mode:absolute,to:'2016-06-18 07:24:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q45" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>42539.328263888892</v>
       </c>
@@ -17420,9 +17567,16 @@
         <v>67</v>
       </c>
       <c r="N46" s="21"/>
-      <c r="P46" s="79"/>
-    </row>
-    <row r="47" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="79" t="str">
+        <f>VLOOKUP(C46,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 07:07:36-0600',mode:absolute,to:'2016-06-18 07:53:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q46" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>42539.298333333332</v>
       </c>
@@ -17464,9 +17618,16 @@
         <v>67</v>
       </c>
       <c r="N47" s="21"/>
-      <c r="P47" s="79"/>
-    </row>
-    <row r="48" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="79" t="str">
+        <f>VLOOKUP(C47,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 06:28:20-0600',mode:absolute,to:'2016-06-18 07:10:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q47" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>42539.338773148149</v>
       </c>
@@ -17508,9 +17669,16 @@
         <v>67</v>
       </c>
       <c r="N48" s="21"/>
-      <c r="P48" s="79"/>
-    </row>
-    <row r="49" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="79" t="str">
+        <f>VLOOKUP(C48,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 07:21:40-0600',mode:absolute,to:'2016-06-18 08:09:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q48" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>42539.320520833331</v>
       </c>
@@ -17552,9 +17720,16 @@
         <v>67</v>
       </c>
       <c r="N49" s="21"/>
-      <c r="P49" s="79"/>
-    </row>
-    <row r="50" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="79" t="str">
+        <f>VLOOKUP(C49,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 06:59:02-0600',mode:absolute,to:'2016-06-18 07:42:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q49" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>42539.338530092595</v>
       </c>
@@ -17596,9 +17771,16 @@
         <v>67</v>
       </c>
       <c r="N50" s="21"/>
-      <c r="P50" s="79"/>
-    </row>
-    <row r="51" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="79" t="str">
+        <f>VLOOKUP(C50,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 07:28:24-0600',mode:absolute,to:'2016-06-18 08:10:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q50" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>42539.389930555553</v>
       </c>
@@ -17640,9 +17822,16 @@
         <v>67</v>
       </c>
       <c r="N51" s="21"/>
-      <c r="P51" s="79"/>
-    </row>
-    <row r="52" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="79" t="str">
+        <f>VLOOKUP(C51,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 08:39:40-0600',mode:absolute,to:'2016-06-18 09:23:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q51" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>42539.413460648146</v>
       </c>
@@ -17684,9 +17873,16 @@
         <v>67</v>
       </c>
       <c r="N52" s="21"/>
-      <c r="P52" s="79"/>
-    </row>
-    <row r="53" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="79" t="str">
+        <f>VLOOKUP(C52,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 09:05:33-0600',mode:absolute,to:'2016-06-18 09:56:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q52" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>42539.411898148152</v>
       </c>
@@ -17728,9 +17924,16 @@
         <v>67</v>
       </c>
       <c r="N53" s="21"/>
-      <c r="P53" s="79"/>
-    </row>
-    <row r="54" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="79" t="str">
+        <f>VLOOKUP(C53,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 09:11:23-0600',mode:absolute,to:'2016-06-18 09:54:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q53" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>42539.465787037036</v>
       </c>
@@ -17772,9 +17975,16 @@
         <v>67</v>
       </c>
       <c r="N54" s="21"/>
-      <c r="P54" s="79"/>
-    </row>
-    <row r="55" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="79" t="str">
+        <f>VLOOKUP(C54,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 10:24:31-0600',mode:absolute,to:'2016-06-18 11:11:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q54" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>42539.482106481482</v>
       </c>
@@ -17816,9 +18026,16 @@
         <v>67</v>
       </c>
       <c r="N55" s="21"/>
-      <c r="P55" s="79"/>
-    </row>
-    <row r="56" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="79" t="str">
+        <f>VLOOKUP(C55,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 10:53:08-0600',mode:absolute,to:'2016-06-18 11:35:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q55" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>42539.473414351851</v>
       </c>
@@ -17860,9 +18077,16 @@
         <v>67</v>
       </c>
       <c r="N56" s="21"/>
-      <c r="P56" s="79"/>
-    </row>
-    <row r="57" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="79" t="str">
+        <f>VLOOKUP(C56,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 10:34:44-0600',mode:absolute,to:'2016-06-18 11:22:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q56" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>42539.515243055554</v>
       </c>
@@ -17904,9 +18128,16 @@
         <v>67</v>
       </c>
       <c r="N57" s="21"/>
-      <c r="P57" s="79"/>
-    </row>
-    <row r="58" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="79" t="str">
+        <f>VLOOKUP(C57,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 11:41:22-0600',mode:absolute,to:'2016-06-18 12:23:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q57" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>42539.545937499999</v>
       </c>
@@ -17948,9 +18179,16 @@
         <v>67</v>
       </c>
       <c r="N58" s="21"/>
-      <c r="P58" s="79"/>
-    </row>
-    <row r="59" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="79" t="str">
+        <f>VLOOKUP(C58,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 12:19:23-0600',mode:absolute,to:'2016-06-18 13:07:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q58" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>42539.557800925926</v>
       </c>
@@ -17992,9 +18230,16 @@
         <v>67</v>
       </c>
       <c r="N59" s="21"/>
-      <c r="P59" s="79"/>
-    </row>
-    <row r="60" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="79" t="str">
+        <f>VLOOKUP(C59,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 12:43:21-0600',mode:absolute,to:'2016-06-18 13:24:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q59" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>42539.59716435185</v>
       </c>
@@ -18036,9 +18281,16 @@
         <v>67</v>
       </c>
       <c r="N60" s="21"/>
-      <c r="P60" s="79"/>
-    </row>
-    <row r="61" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="79" t="str">
+        <f>VLOOKUP(C60,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 13:31:23-0600',mode:absolute,to:'2016-06-18 14:21:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q60" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>42539.606365740743</v>
       </c>
@@ -18080,9 +18332,16 @@
         <v>67</v>
       </c>
       <c r="N61" s="21"/>
-      <c r="P61" s="79"/>
-    </row>
-    <row r="62" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="79" t="str">
+        <f>VLOOKUP(C61,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 13:49:11-0600',mode:absolute,to:'2016-06-18 14:34:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q61" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>42539.600208333337</v>
       </c>
@@ -18124,9 +18383,16 @@
         <v>67</v>
       </c>
       <c r="N62" s="21"/>
-      <c r="P62" s="79"/>
-    </row>
-    <row r="63" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="79" t="str">
+        <f>VLOOKUP(C62,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 13:38:34-0600',mode:absolute,to:'2016-06-18 14:25:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q62" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>42539.640451388892</v>
       </c>
@@ -18168,9 +18434,16 @@
         <v>67</v>
       </c>
       <c r="N63" s="21"/>
-      <c r="P63" s="79"/>
-    </row>
-    <row r="64" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="79" t="str">
+        <f>VLOOKUP(C63,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 14:32:12-0600',mode:absolute,to:'2016-06-18 15:23:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q63" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>42539.620034722226</v>
       </c>
@@ -18212,7 +18485,14 @@
         <v>67</v>
       </c>
       <c r="N64" s="21"/>
-      <c r="P64" s="79"/>
+      <c r="P64" s="79" t="str">
+        <f>VLOOKUP(C64,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 14:12:30-0600',mode:absolute,to:'2016-06-18 14:54:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q64" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4025</v>
+      </c>
     </row>
     <row r="65" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
@@ -18256,7 +18536,14 @@
         <v>67</v>
       </c>
       <c r="N65" s="21"/>
-      <c r="P65" s="79"/>
+      <c r="P65" s="79" t="str">
+        <f>VLOOKUP(C65,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 16:38:10-0600',mode:absolute,to:'2016-06-18 17:34:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q65" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4026</v>
+      </c>
     </row>
     <row r="66" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
@@ -18300,7 +18587,14 @@
         <v>67</v>
       </c>
       <c r="N66" s="21"/>
-      <c r="P66" s="79"/>
+      <c r="P66" s="79" t="str">
+        <f>VLOOKUP(C66,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 17:15:54-0600',mode:absolute,to:'2016-06-18 18:04:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q66" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4023</v>
+      </c>
     </row>
     <row r="67" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
@@ -18344,7 +18638,14 @@
         <v>67</v>
       </c>
       <c r="N67" s="21"/>
-      <c r="P67" s="79"/>
+      <c r="P67" s="79" t="str">
+        <f>VLOOKUP(C67,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 16:50:41-0600',mode:absolute,to:'2016-06-18 17:38:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q67" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4042</v>
+      </c>
     </row>
     <row r="68" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
@@ -18388,7 +18689,14 @@
         <v>67</v>
       </c>
       <c r="N68" s="21"/>
-      <c r="P68" s="79"/>
+      <c r="P68" s="79" t="str">
+        <f>VLOOKUP(C68,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 18:20:18-0600',mode:absolute,to:'2016-06-18 19:07:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q68" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4017</v>
+      </c>
     </row>
     <row r="69" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
@@ -18432,7 +18740,14 @@
         <v>67</v>
       </c>
       <c r="N69" s="21"/>
-      <c r="P69" s="79"/>
+      <c r="P69" s="79" t="str">
+        <f>VLOOKUP(C69,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 18:31:18-0600',mode:absolute,to:'2016-06-18 19:21:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q69" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4026</v>
+      </c>
     </row>
     <row r="70" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
@@ -18476,7 +18791,14 @@
         <v>67</v>
       </c>
       <c r="N70" s="21"/>
-      <c r="P70" s="79"/>
+      <c r="P70" s="79" t="str">
+        <f>VLOOKUP(C70,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 17:54:45-0600',mode:absolute,to:'2016-06-18 18:37:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q70" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4020</v>
+      </c>
     </row>
     <row r="71" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
@@ -18520,7 +18842,14 @@
         <v>67</v>
       </c>
       <c r="N71" s="21"/>
-      <c r="P71" s="79"/>
+      <c r="P71" s="79" t="str">
+        <f>VLOOKUP(C71,'Train Runs'!$A$3:$T$253,20,0)</f>
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 18:46:38-0600',mode:absolute,to:'2016-06-18 19:36:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="Q71" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>4019</v>
+      </c>
     </row>
     <row r="72" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
@@ -18569,7 +18898,7 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 23:51:43-0600',mode:absolute,to:'2016-06-19 00:38:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q72" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4039</v>
       </c>
     </row>
@@ -18620,7 +18949,7 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 23:18:37-0600',mode:absolute,to:'2016-06-19 00:08:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q73" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4025</v>
       </c>
     </row>
@@ -18671,7 +19000,7 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-19 00:13:31-0600',mode:absolute,to:'2016-06-19 01:05:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q74" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4026</v>
       </c>
     </row>
@@ -18722,7 +19051,7 @@
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-06-18 23:54:36-0600',mode:absolute,to:'2016-06-19 00:38:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q75" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4024</v>
       </c>
     </row>
